--- a/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC2.2_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC2.2_TC1.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2910050226805455</v>
+        <v>0.3003800226805455</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2910050226805455, 'ngram_match_score': 0.1393313676699542, 'weighted_ngram_match_score': 0.183134668998174, 'syntax_match_score': 0.5540540540540541, 'dataflow_match_score': 0.2875}</t>
+          <t>{'codebleu': 0.30038002268054553, 'ngram_match_score': 0.1393313676699542, 'weighted_ngram_match_score': 0.183134668998174, 'syntax_match_score': 0.5540540540540541, 'dataflow_match_score': 0.325}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC2.2_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC2.2_TC1.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3003800226805455</v>
+        <v>0.2972550226805455</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.30038002268054553, 'ngram_match_score': 0.1393313676699542, 'weighted_ngram_match_score': 0.183134668998174, 'syntax_match_score': 0.5540540540540541, 'dataflow_match_score': 0.325}</t>
+          <t>{'codebleu': 0.29725502268054554, 'ngram_match_score': 0.1393313676699542, 'weighted_ngram_match_score': 0.183134668998174, 'syntax_match_score': 0.5540540540540541, 'dataflow_match_score': 0.3125}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
